--- a/databases/شکل سفارشی حواله ورودی.xlsx
+++ b/databases/شکل سفارشی حواله ورودی.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personaly\Base Projects\Pharmacy_app\backend\databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9961F27A-9AEF-43F4-B25B-0A49DB39F200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="14355" windowHeight="6465" activeTab="5"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,17 @@
     <sheet name="Chart1" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Khalil</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,12 +79,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Khalil</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -127,12 +133,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Khalil</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -159,12 +165,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Khalil</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -752,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -767,20 +773,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -819,26 +816,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -876,9 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,7 +881,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -926,18 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,12 +958,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1021,9 +996,12 @@
             <c:strRef>
               <c:f>Sheet3!$F$24:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>مجموع فایده 400.0</c:v>
+                  <c:v>مجموع فایده</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1097,6 +1075,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9643-4196-BB8E-B1EC351D5DE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1117,6 +1100,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1156,10 +1140,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1170,10 +1154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674554" cy="6293304"/>
+    <xdr:ext cx="8665221" cy="6288186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1194,52 +1184,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O7:R11" totalsRowShown="0">
-  <autoFilter ref="O7:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="O7:R11" totalsRowShown="0">
+  <autoFilter ref="O7:R11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="P7:S11" totalsRowShown="0">
-  <autoFilter ref="P7:S11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="P7:S11" totalsRowShown="0">
+  <autoFilter ref="P7:S11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="R7:U11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="R7:U11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345" displayName="Table1345" ref="R7:U11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="R7:U11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" name="Column2" dataDxfId="8"/>
-    <tableColumn id="3" name="Column3" dataDxfId="7"/>
-    <tableColumn id="4" name="Column4" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="R7:U11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="R7:U11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134" displayName="Table134" ref="R7:U11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="R7:U11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="3"/>
-    <tableColumn id="2" name="Column2" dataDxfId="2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1288,7 +1278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1321,9 +1311,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1356,6 +1363,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1531,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -1555,25 +1579,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="1">
         <v>100</v>
       </c>
@@ -1592,19 +1616,19 @@
       <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -1614,10 +1638,10 @@
       <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1800,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -1809,7 +1833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
@@ -1828,26 +1852,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="1">
         <v>100</v>
       </c>
@@ -1866,19 +1890,19 @@
       <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="61"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -1889,30 +1913,30 @@
         <v>26</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -1948,7 +1972,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -1985,7 +2009,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -2037,19 +2061,19 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="6"/>
@@ -2063,7 +2087,7 @@
         <f>H10*I10</f>
         <v>4500</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="6">
         <v>30</v>
       </c>
@@ -2079,19 +2103,19 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="F13" s="3"/>
@@ -2100,7 +2124,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="F14" s="3"/>
@@ -2109,11 +2133,11 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2138,441 +2162,441 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="2" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="15"/>
-    <col min="15" max="15" width="5.140625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="46.85546875" style="13" customWidth="1"/>
-    <col min="19" max="21" width="11" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="7.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="2" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="12"/>
+    <col min="15" max="15" width="5.140625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="46.85546875" style="10" customWidth="1"/>
+    <col min="19" max="21" width="11" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="28">
+      <c r="B2" s="49"/>
+      <c r="C2" s="7">
         <v>100</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="7">
         <v>2221</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="62"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="G3" s="13" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>0.5</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="62"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="K4" s="16" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>350</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <f>J6*K6</f>
         <v>1750</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20">
+      <c r="F6" s="16"/>
+      <c r="G6" s="17">
         <v>10</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>0</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <f>C6*G6+I6+H6</f>
         <v>50</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <f>((D6*C6)/J6)</f>
         <v>35</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <v>0</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="19">
         <v>18</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="12">
         <f>(K6*(1+M6%))+L6</f>
         <v>41.3</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <f>N6*J6</f>
         <v>2065</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="12">
         <f>O6-E6</f>
         <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>70</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <f>C7*D7</f>
         <v>700</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22">
+      <c r="F7" s="16"/>
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <f>(C7*G7)+H7</f>
         <v>10</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <f>(E7/J7)+I7</f>
         <v>70</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <v>0</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="19">
         <v>18</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="12">
         <f>K7*(1+M7%)</f>
         <v>82.6</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f>N7*J7</f>
         <v>826</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="12">
         <f>O7-E7</f>
         <v>126</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="R13" s="13" t="s">
+      <c r="F13" s="16"/>
+      <c r="R13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="R14" s="13" t="s">
+      <c r="F14" s="16"/>
+      <c r="R14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="R15" s="25" t="s">
+      <c r="F15" s="16"/>
+      <c r="R15" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <f>SUM(E6:E7)</f>
         <v>2450</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="N16" s="29" t="s">
+      <c r="F16" s="16"/>
+      <c r="N16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f>SUM(O6:O15)</f>
         <v>2891</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="12">
         <f>SUM(P6:P15)</f>
         <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f>J3</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f>E16*E17</f>
         <v>1225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <f>E18-(E19+(1+E20%))+(E21+(1+E22%))</f>
         <v>1124.9000000000001</v>
       </c>
@@ -2595,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -2604,432 +2628,432 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="2" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="15"/>
-    <col min="15" max="15" width="5.140625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="46.85546875" style="13" customWidth="1"/>
-    <col min="19" max="21" width="11" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="7.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="2" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="12"/>
+    <col min="15" max="15" width="5.140625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="46.85546875" style="10" customWidth="1"/>
+    <col min="19" max="21" width="11" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="12">
+      <c r="B2" s="49"/>
+      <c r="C2" s="7">
         <v>100</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
         <v>2221</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="62"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="G3" s="13" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>0.5</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="62"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="K4" s="16" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>350</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <f>J6*K6</f>
         <v>1750</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20">
+      <c r="F6" s="16"/>
+      <c r="G6" s="17">
         <v>10</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>0</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <f>C6*G6+I6+H6</f>
         <v>50</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <f>((D6*C6)/J6)</f>
         <v>35</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <v>0</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="19">
         <v>18</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="12">
         <f>(K6*(1+M6%))+L6</f>
         <v>41.3</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <f>N6*J6</f>
         <v>2065</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="12">
         <f>O6-E6</f>
         <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>70</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <f>C7*D7</f>
         <v>700</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22">
+      <c r="F7" s="16"/>
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <f>(C7*G7)+H7</f>
         <v>10</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <f>(E7/J7)+I7</f>
         <v>70</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <v>0</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="19">
         <v>18</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="12">
         <f>K7*(1+M7%)</f>
         <v>82.6</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f>N7*J7</f>
         <v>826</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="12">
         <f>O7-E7</f>
         <v>126</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="R13" s="13" t="s">
+      <c r="F13" s="16"/>
+      <c r="R13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="R14" s="13" t="s">
+      <c r="F14" s="16"/>
+      <c r="R14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="R15" s="25" t="s">
+      <c r="F15" s="16"/>
+      <c r="R15" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <f>SUM(E6:E7)</f>
         <v>2450</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="N16" s="18" t="s">
+      <c r="F16" s="16"/>
+      <c r="N16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f>SUM(O6:O15)</f>
         <v>2891</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="12">
         <f>SUM(P6:P15)</f>
         <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f>J3</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f>E16*E17</f>
         <v>1225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <f>E18-(E19+(1+E20%))+(E21+(1+E22%))</f>
         <v>1124.9000000000001</v>
       </c>
@@ -3052,11 +3076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,578 +3089,563 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="36" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="30"/>
+    <col min="7" max="7" width="9.140625" style="23"/>
     <col min="8" max="8" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="57" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="47" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="27">
         <v>1</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="39">
         <v>2013</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="30">
         <v>10</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="30">
         <f>(G8*(1-G7%))+(G8-G6)</f>
         <v>200</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="50"/>
-      <c r="F6" s="34" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="F6" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="30">
         <v>0</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="45"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="50"/>
-      <c r="F7" s="34" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="F7" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="30">
         <v>0</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="45"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="50"/>
-      <c r="F8" s="34" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="F8" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="30">
         <v>100</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="45"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="31">
         <f>G5*G4</f>
         <v>2000</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="32">
         <v>1</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="32">
         <v>0</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="40">
         <v>89.5</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="32">
         <v>0</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="39">
         <v>20</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="31">
         <f>(G4*G10)+G11+G12</f>
         <v>10</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="33">
         <f>G9/(G4*G10)</f>
         <v>200</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="45" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="33">
         <f>((G5/(G4*G10))*G4)*G11</f>
         <v>0</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="45" t="s">
+      <c r="H15" s="34"/>
+      <c r="I15" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="33">
         <f>(G9/((G4*G10)+G12))*G12</f>
         <v>0</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="45" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="33">
         <f>IF(AND(G11=0,G12=0),G14,G15+G16)</f>
         <v>200</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="32">
         <v>0</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="32">
         <v>20</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f>C21*(1-C22%)</f>
-        <v>90</v>
-      </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="33">
         <f>(G18+(G17*(1+G19%)))</f>
         <v>240</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="33">
         <f>G20*(G4*G10)</f>
         <v>2400</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="45" t="s">
+      <c r="H21" s="28"/>
+      <c r="I21" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="33">
         <f>G21-G9</f>
         <v>400</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="45" t="s">
+      <c r="H22" s="28"/>
+      <c r="I22" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="33">
         <f>G11*G15</f>
         <v>0</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="33">
         <f>SUM(G22:G23)</f>
         <v>400</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="69" t="s">
+      <c r="G25" s="48"/>
+      <c r="H25" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="71"/>
-      <c r="H26" s="31"/>
+      <c r="F26" s="23"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="31"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53" t="s">
+      <c r="G28" s="42"/>
+      <c r="H28" s="43" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="65"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="54" t="s">
+      <c r="F29" s="55"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="44" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="66"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56" t="s">
+      <c r="F30" s="56"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="31"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="31"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="31"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="31"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="31"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="31"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="31"/>
+      <c r="H37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
